--- a/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A2_2023-Estudios-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7071043289167731</v>
+        <v>0.7071043289167733</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7469980837076541</v>
+        <v>0.746998083707654</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7304435406166756</v>
+        <v>0.7304435406166757</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6618241754420239</v>
+        <v>0.6611757018047808</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7195367156452077</v>
+        <v>0.7209914783709843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7076799218054544</v>
+        <v>0.7066924592479262</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7436803487867849</v>
+        <v>0.7453714647161324</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7741411461058689</v>
+        <v>0.7761247632838331</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7545140571548035</v>
+        <v>0.7536386831251586</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7160780031092513</v>
+        <v>0.7160780031092511</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6632626244081499</v>
+        <v>0.6632626244081498</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6900215720881564</v>
+        <v>0.6900215720881563</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6936692469050298</v>
+        <v>0.6936949058867189</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6437693550961329</v>
+        <v>0.6446788859816215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6753378015480804</v>
+        <v>0.6755352615699336</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7392891007262746</v>
+        <v>0.740242252752656</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6827265494462926</v>
+        <v>0.6829734889082942</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7040965504689688</v>
+        <v>0.7049666006186777</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6912383950035749</v>
+        <v>0.6912383950035748</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.6305236732861821</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6604606057112384</v>
+        <v>0.6604606057112383</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6501176790932054</v>
+        <v>0.651564768149582</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5923861180628219</v>
+        <v>0.6008129658769157</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.635994062090689</v>
+        <v>0.6355684392239696</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7260818620818692</v>
+        <v>0.7270235406724157</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6589348971622543</v>
+        <v>0.6623672603242444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6852700520327213</v>
+        <v>0.6848329589592181</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.6728152911615985</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.690721873502753</v>
+        <v>0.6907218735027533</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6920890664750925</v>
+        <v>0.6918743998181683</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6583382729587328</v>
+        <v>0.6588662623202296</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6799299400964894</v>
+        <v>0.6804393227760765</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7269052690111202</v>
+        <v>0.7274926395675977</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6870013489678432</v>
+        <v>0.6871181383375184</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7018553584468294</v>
+        <v>0.701922837139234</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>306977</v>
+        <v>306676</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>470527</v>
+        <v>471478</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>791019</v>
+        <v>789915</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>344944</v>
+        <v>345729</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>506234</v>
+        <v>507531</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>843369</v>
+        <v>842390</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1421527</v>
+        <v>1421580</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1284633</v>
+        <v>1286448</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2731588</v>
+        <v>2732387</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1515016</v>
+        <v>1516969</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1362371</v>
+        <v>1362864</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>2847911</v>
+        <v>2851430</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>440318</v>
+        <v>441298</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>412486</v>
+        <v>418353</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>873602</v>
+        <v>873017</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>491767</v>
+        <v>492405</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>458824</v>
+        <v>461214</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>941288</v>
+        <v>940687</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2208048</v>
+        <v>2207363</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2202621</v>
+        <v>2204388</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4444116</v>
+        <v>4447445</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2319126</v>
+        <v>2321000</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2298520</v>
+        <v>2298911</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4587423</v>
+        <v>4587865</v>
       </c>
     </row>
     <row r="20">
